--- a/BankAPP-Employee User stories.xlsx
+++ b/BankAPP-Employee User stories.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SI</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>AS A Requester I WANT TO Able to sned the feedback on the Item which was Issued SO THAT I or My Team can use to perform the duty.</t>
+  </si>
+  <si>
+    <t>EPIC</t>
   </si>
 </sst>
 </file>
@@ -132,6 +135,198 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>User Story</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AS A Employee I WANT TO Raise a request for Equipment or Article SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AS A Requester I WANT TO Amend my request SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AS A Requester I WANT TO Withdraw my request SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AS A Requester I WANT TO Delegate my request SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AS A Requester I WANT TO View the current status SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AS A Requester I WANT TO Able to recive a Notification SO THAT I can be Updated with the Current Status.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AS A Requester I WANT TO Make a product/Offers or Deals SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AS A Requester I WANT TO Able to reject items that have been allocated SO THAT I can not waste time on waiting for product.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AS A Requester I WANT TO know about my Budget limit SO THAT I can request in my Budget.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AS A Requester I WANT TO request to Extend Budget limit SO THAT I reach our all requirements.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AS A Requester I WANT TO Know the procedure to increes my Budget limit SO THAT I can increes Budget then i can fullfill our requirements.</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AS A Requester I WANT TO Question to the quality of product SO THAT I may not face any problem.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AS A Requester I WANT TO be Able to calrify the some doubts SO THAT it would be easy to work.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AS A Requester I WANT TO be Able to know about my approval item details SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AS A Requester I WANT TO be Able to see demonstration of the Item SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>AS A Requester I WANT TO be Able to get my Item in with in the time SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>AS A Requester I WANT TO be Able to get my Item in with in the time SO THAT I can complete the work with in Deadlines.</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AS A Requester I WANT TO be Able to Change my Item SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>AS A Requester I WANT TO be Able to Change my Item  color SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>AS A Requester I WANT TO Know is rquest is placed or not SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>AS A Requester I WANT TO check my account statement SO THAT I or My Team can use to perform the duty.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="76241920"/>
+        <c:axId val="76264192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="76241920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76264192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76264192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76241920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3714750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8286750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,203 +614,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="3" width="129.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24.75" customHeight="1">
+    <row r="2" spans="1:3" ht="24.75" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/BankAPP-Employee User stories.xlsx
+++ b/BankAPP-Employee User stories.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>SI</t>
   </si>
@@ -42,9 +45,6 @@
     <t>AS A Requester I WANT TO Able to recive a Notification SO THAT I can be Updated with the Current Status.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO Make a product/Offers or Deals SO THAT I or My Team can use to perform the duty.</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO Able to reject items that have been allocated SO THAT I can not waste time on waiting for product.</t>
   </si>
   <si>
@@ -69,28 +69,43 @@
     <t>AS A Requester I WANT TO be Able to see demonstration of the Item SO THAT I or My Team can use to perform the duty.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO be Able to get my Item in with in the time SO THAT I or My Team can use to perform the duty.</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO be Able to get my Item in with in the time SO THAT I can complete the work with in Deadlines.</t>
   </si>
   <si>
     <t>AS A Requester I WANT TO be Able to Change my Item SO THAT I or My Team can use to perform the duty.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO be Able to Change my Item  color SO THAT I or My Team can use to perform the duty.</t>
-  </si>
-  <si>
-    <t>AS A Requester I WANT TO Know is rquest is placed or not SO THAT I or My Team can use to perform the duty.</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO check my account statement SO THAT I or My Team can use to perform the duty.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO Able to sned the feedback on the Item which was Issued SO THAT I or My Team can use to perform the duty.</t>
-  </si>
-  <si>
     <t>EPIC</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO to be able increase or decrease my item SO THAT I or my team perform the duty</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO to be able to set reminder for selected item  SO THAT i am reminded when the item is due</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO to be able to delete selected item SO THAT i can select another one</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO BE able to edit my items  SO THAT i can easly find where is my item</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO suggest a product/Offers or Deals SO THAT I or My Team can use to perform the duty.</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO Change in my Address details SO THAT I can reach the product where it is required.</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO able to modify rejected request  SO THAT I or My Team can use to perform the duty.</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO Know is request is placed or not SO THAT I or My Team can use to perform the duty.</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO Able to send the feedback on the Item which was Issued SO THAT I or My Team can use to perform the duty.</t>
   </si>
 </sst>
 </file>
@@ -137,196 +152,27 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$C$22</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>User Story</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AS A Employee I WANT TO Raise a request for Equipment or Article SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AS A Requester I WANT TO Amend my request SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AS A Requester I WANT TO Withdraw my request SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>AS A Requester I WANT TO Delegate my request SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AS A Requester I WANT TO View the current status SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>AS A Requester I WANT TO Able to recive a Notification SO THAT I can be Updated with the Current Status.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>AS A Requester I WANT TO Make a product/Offers or Deals SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>AS A Requester I WANT TO Able to reject items that have been allocated SO THAT I can not waste time on waiting for product.</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>AS A Requester I WANT TO know about my Budget limit SO THAT I can request in my Budget.</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>AS A Requester I WANT TO request to Extend Budget limit SO THAT I reach our all requirements.</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AS A Requester I WANT TO Know the procedure to increes my Budget limit SO THAT I can increes Budget then i can fullfill our requirements.</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>AS A Requester I WANT TO Question to the quality of product SO THAT I may not face any problem.</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>AS A Requester I WANT TO be Able to calrify the some doubts SO THAT it would be easy to work.</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>AS A Requester I WANT TO be Able to know about my approval item details SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AS A Requester I WANT TO be Able to see demonstration of the Item SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>AS A Requester I WANT TO be Able to get my Item in with in the time SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>AS A Requester I WANT TO be Able to get my Item in with in the time SO THAT I can complete the work with in Deadlines.</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>AS A Requester I WANT TO be Able to Change my Item SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>AS A Requester I WANT TO be Able to Change my Item  color SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>AS A Requester I WANT TO Know is rquest is placed or not SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>AS A Requester I WANT TO check my account statement SO THAT I or My Team can use to perform the duty.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="76241920"/>
-        <c:axId val="76264192"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="76241920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76264192"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="76264192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76241920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3714750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8286750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="T36" t="str">
+            <v>AS A Requester I WANT TO Able to sned the feedback on the Item which was Issued SO THAT I or My Team can use to perform the duty.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
@@ -627,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -686,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -694,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -702,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -710,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -718,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -726,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -734,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -742,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -750,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -758,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -766,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -774,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -782,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -790,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -798,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -806,12 +652,43 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/BankAPP-Employee User stories.xlsx
+++ b/BankAPP-Employee User stories.xlsx
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>SI</t>
   </si>
@@ -36,27 +33,12 @@
     <t>AS A Requester I WANT TO Withdraw my request SO THAT I or My Team can use to perform the duty.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO Delegate my request SO THAT I or My Team can use to perform the duty.</t>
-  </si>
-  <si>
-    <t>AS A Requester I WANT TO View the current status SO THAT I or My Team can use to perform the duty.</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO Able to recive a Notification SO THAT I can be Updated with the Current Status.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO Able to reject items that have been allocated SO THAT I can not waste time on waiting for product.</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO know about my Budget limit SO THAT I can request in my Budget.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO request to Extend Budget limit SO THAT I reach our all requirements.</t>
-  </si>
-  <si>
-    <t>AS A Requester I WANT TO Know the procedure to increes my Budget limit SO THAT I can increes Budget then i can fullfill our requirements.</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO Question to the quality of product SO THAT I may not face any problem.</t>
   </si>
   <si>
@@ -69,43 +51,52 @@
     <t>AS A Requester I WANT TO be Able to see demonstration of the Item SO THAT I or My Team can use to perform the duty.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO be Able to get my Item in with in the time SO THAT I can complete the work with in Deadlines.</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO be Able to Change my Item SO THAT I or My Team can use to perform the duty.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO check my account statement SO THAT I or My Team can use to perform the duty.</t>
-  </si>
-  <si>
     <t>EPIC</t>
   </si>
   <si>
     <t>AS A Requester I WANT TO to be able increase or decrease my item SO THAT I or my team perform the duty</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO to be able to set reminder for selected item  SO THAT i am reminded when the item is due</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO to be able to delete selected item SO THAT i can select another one</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO BE able to edit my items  SO THAT i can easly find where is my item</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO suggest a product/Offers or Deals SO THAT I or My Team can use to perform the duty.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO Change in my Address details SO THAT I can reach the product where it is required.</t>
-  </si>
-  <si>
-    <t>AS A Requester I WANT TO able to modify rejected request  SO THAT I or My Team can use to perform the duty.</t>
-  </si>
-  <si>
     <t>AS A Requester I WANT TO Know is request is placed or not SO THAT I or My Team can use to perform the duty.</t>
   </si>
   <si>
-    <t>AS A Requester I WANT TO Able to send the feedback on the Item which was Issued SO THAT I or My Team can use to perform the duty.</t>
+    <t>REQUEST 1</t>
+  </si>
+  <si>
+    <t>REQUEST 2</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO find approximate price of the item SO THAT to buy it for any of my teammates.</t>
+  </si>
+  <si>
+    <t>As a requestor I WANT TO consult my request to my collegue SO THAT the request can judged appropriately.</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO save my incompleted request in draft SO THAT I can edit it whenever it is needed.</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO View my request list SO THAT I can know what I have requested.</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO be Able to get my Item in within the time SO THAT I can complete the work with in Deadlines.</t>
+  </si>
+  <si>
+    <t>REQUEST 3</t>
+  </si>
+  <si>
+    <t>AS A Requester I WANT TO BE able to TRACK my items  SO THAT i can easly find where is my item</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -121,12 +112,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,38 +174,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="36">
-          <cell r="T36" t="str">
-            <v>AS A Requester I WANT TO Able to sned the feedback on the Item which was Issued SO THAT I or My Team can use to perform the duty.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,235 +501,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="76.85546875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="12" spans="1:3" ht="30">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="13" spans="1:3" ht="30">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="16" spans="1:3" ht="30">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
